--- a/TEST/6.xlsx
+++ b/TEST/6.xlsx
@@ -356,10 +356,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1">
+        <v>123456</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
